--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -372,7 +372,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -485,7 +485,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,8 +614,8 @@
   </sheetPr>
   <dimension ref="B2:N61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,11 +626,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="32.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.13"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="1" width="1.75"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="9" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="2.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="0.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="50.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="9"/>
@@ -764,7 +767,7 @@
       </c>
       <c r="N7" s="20" t="n">
         <f aca="false">COUNTIFS(I4:I64,TRUE(),J4:J64,"Required")</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -781,7 +784,7 @@
       </c>
       <c r="N8" s="21" t="n">
         <f aca="false">COUNTIFS(I4:I64,TRUE(),J4:J64,"Required")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Required")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +833,7 @@
       </c>
       <c r="N10" s="20" t="n">
         <f aca="false">COUNTIFS(I4:I64,TRUE(),J4:J64,"Challenge")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +843,7 @@
       </c>
       <c r="N11" s="21" t="n">
         <f aca="false">COUNTIFS(I4:I64,TRUE(),J4:J64,"Challenge")/COUNTIFS(I4:I64,"&lt;&gt;",J4:J64,"Challenge")</f>
-        <v>0.0625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,15 +1203,15 @@
       <c r="C35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="28" t="str">
+      <c r="D35" s="28"/>
+      <c r="E35" s="29" t="str">
         <f aca="false">IF(I35,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F35" s="17"/>
       <c r="I35" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>6</v>
@@ -1222,14 +1225,14 @@
         <v>38</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="28" t="str">
+      <c r="E36" s="29" t="str">
         <f aca="false">IF(I36,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F36" s="17"/>
       <c r="I36" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>6</v>
@@ -1243,14 +1246,14 @@
         <v>39</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="28" t="str">
+      <c r="E37" s="29" t="str">
         <f aca="false">IF(I37,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F37" s="17"/>
       <c r="I37" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>6</v>
@@ -1264,14 +1267,14 @@
         <v>40</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="28" t="str">
+      <c r="E38" s="29" t="str">
         <f aca="false">IF(I38,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F38" s="17"/>
       <c r="I38" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>6</v>
@@ -1295,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="E40" s="28" t="str">
+      <c r="E40" s="29" t="str">
         <f aca="false">IF(I40,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
@@ -1316,14 +1319,14 @@
         <v>42</v>
       </c>
       <c r="D41" s="15"/>
-      <c r="E41" s="28" t="str">
+      <c r="E41" s="29" t="str">
         <f aca="false">IF(I41,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F41" s="17"/>
       <c r="I41" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
@@ -1337,14 +1340,14 @@
         <v>43</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="28" t="str">
+      <c r="E42" s="29" t="str">
         <f aca="false">IF(I42,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F42" s="17"/>
       <c r="I42" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
@@ -1358,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="28" t="str">
+      <c r="E43" s="29" t="str">
         <f aca="false">IF(I43,"Done","To Be Done")</f>
         <v>To Be Done</v>
       </c>
@@ -1406,12 +1409,12 @@
       <c r="D47" s="15"/>
       <c r="E47" s="16" t="str">
         <f aca="false">IF(I47,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F47" s="17"/>
       <c r="I47" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>6</v>
@@ -1427,12 +1430,12 @@
       <c r="D48" s="15"/>
       <c r="E48" s="16" t="str">
         <f aca="false">IF(I48,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F48" s="17"/>
       <c r="I48" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>6</v>
@@ -1448,12 +1451,12 @@
       <c r="D49" s="15"/>
       <c r="E49" s="16" t="str">
         <f aca="false">IF(I49,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F49" s="17"/>
       <c r="I49" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>6</v>
@@ -1479,12 +1482,12 @@
       <c r="D51" s="15"/>
       <c r="E51" s="16" t="str">
         <f aca="false">IF(I51,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F51" s="17"/>
       <c r="I51" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
@@ -1546,12 +1549,12 @@
       <c r="D56" s="15"/>
       <c r="E56" s="16" t="str">
         <f aca="false">IF(I56,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F56" s="17"/>
       <c r="I56" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>6</v>
@@ -1567,12 +1570,12 @@
       <c r="D57" s="15"/>
       <c r="E57" s="16" t="str">
         <f aca="false">IF(I57,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F57" s="17"/>
       <c r="I57" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>
@@ -1588,12 +1591,12 @@
       <c r="D58" s="15"/>
       <c r="E58" s="16" t="str">
         <f aca="false">IF(I58,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="F58" s="17"/>
       <c r="I58" s="22" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>6</v>
